--- a/data/combined data/combined data - 1 cleaning/cleaning step 2 - career/2.4 orgtree/기관명칭변화.xlsx
+++ b/data/combined data/combined data - 1 cleaning/cleaning step 2 - career/2.4 orgtree/기관명칭변화.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seoul\Dropbox\00 technical\github\nkelites\data\combined data\combined data - 1 cleaning\cleaning step 2 - career\2.4 orgtree\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B31D4F-71CC-4206-B185-842F22A53DD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DCFEF36-46A8-4EA9-84FD-DD267E43E3C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{20F7F42E-4732-F146-929E-DFEE07DA1FDD}"/>
+    <workbookView xWindow="1210" yWindow="200" windowWidth="15730" windowHeight="9130" xr2:uid="{20F7F42E-4732-F146-929E-DFEE07DA1FDD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="88">
   <si>
     <t>PI</t>
   </si>
@@ -297,6 +297,9 @@
   </si>
   <si>
     <t>Deprecated</t>
+  </si>
+  <si>
+    <t>내각</t>
   </si>
 </sst>
 </file>
@@ -312,12 +315,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -332,12 +353,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -656,14 +695,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B74E877-CA93-C64B-B068-A23D1E894F3B}">
   <dimension ref="A1:G77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.9140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="39.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.58203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="21.4140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="35.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.83203125" style="2" customWidth="1"/>
@@ -671,7 +710,7 @@
     <col min="7" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -688,388 +727,412 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="4">
         <v>2016</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="4">
         <v>2021</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="C4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="6">
         <v>2021</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="C6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="4">
         <v>1975</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="C7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="4">
         <v>1988</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="C8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="4">
         <v>2009</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="C9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="4">
         <v>2015</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="C10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="C11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="8">
         <v>1995</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="1" t="s">
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="C12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="8">
         <v>2018</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="1" t="s">
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
+      <c r="C13" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="4">
         <v>2017</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
+      <c r="C15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="8" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="8" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="1" t="s">
+      <c r="C18" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="1" t="s">
+      <c r="C19" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="4">
         <v>2011</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="1" t="s">
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="1" t="s">
+      <c r="C20" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="4">
         <v>2022</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="1" t="s">
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
+      <c r="C21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="8">
         <v>1981</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
+      <c r="F22" s="8"/>
+    </row>
+    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="1" t="s">
+      <c r="C23" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="8">
         <v>1998</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" s="1" t="s">
+      <c r="F23" s="8"/>
+    </row>
+    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="1" t="s">
+      <c r="C24" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="8">
         <v>2014</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25" s="1" t="s">
+      <c r="F24" s="8"/>
+    </row>
+    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B25" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C25" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25" s="8"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>10</v>
       </c>
@@ -1086,7 +1149,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>12</v>
       </c>
@@ -1103,7 +1166,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>12</v>
       </c>
@@ -1120,7 +1183,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>10</v>
       </c>
@@ -1137,7 +1200,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>12</v>
       </c>
@@ -1154,7 +1217,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>12</v>
       </c>
@@ -1171,7 +1234,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>10</v>
       </c>
